--- a/prototype_python/data/ppp/P3_ResponseInhibition.xlsx
+++ b/prototype_python/data/ppp/P3_ResponseInhibition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
   <si>
     <t>Stimulus_Side</t>
   </si>
@@ -58,13 +58,10 @@
     <t>Task</t>
   </si>
   <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
     <t>LEFT</t>
-  </si>
-  <si>
-    <t>RIGHT</t>
-  </si>
-  <si>
-    <t>Time_Max_Exceeded</t>
   </si>
   <si>
     <t>ppp</t>
@@ -487,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>650.0000013</v>
+        <v>500.000001</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -496,25 +493,25 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>307.7236000000028</v>
+        <v>433.5155999999927</v>
       </c>
       <c r="I2" s="2">
-        <v>43775.51360459287</v>
+        <v>43775.52757000407</v>
       </c>
       <c r="J2" s="2">
-        <v>43775.51361058389</v>
+        <v>43775.52757745293</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -522,37 +519,34 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1500.000003</v>
+        <v>650.0000013</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>100.0000002</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>248.9877002000064</v>
+        <v>345.7924000000077</v>
       </c>
       <c r="I3" s="2">
-        <v>43775.51362818846</v>
+        <v>43775.52758519841</v>
       </c>
       <c r="J3" s="2">
-        <v>43775.51363354676</v>
+        <v>43775.52759162793</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -560,72 +554,75 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1283.3333359</v>
+        <v>716.6666681</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>283.3333339</v>
+        <v>250.0000005</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>393.0803338999987</v>
+        <v>312.2421004999917</v>
       </c>
       <c r="I4" s="2">
-        <v>43775.51364862338</v>
+        <v>43775.52760015833</v>
       </c>
       <c r="J4" s="2">
-        <v>43775.51365565322</v>
+        <v>43775.52760625345</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>500.000001</v>
+        <v>1500.000003</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>283.3333339</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>487.4012000000079</v>
+        <v>279.8219000000017</v>
       </c>
       <c r="I5" s="2">
-        <v>43775.51366166727</v>
+        <v>43775.52762381698</v>
       </c>
       <c r="J5" s="2">
-        <v>43775.51366973981</v>
+        <v>43775.52762949246</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -633,72 +630,69 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>716.6666681</v>
+        <v>1350.0000027</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>133.3333336</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>1500.061133599992</v>
+        <v>296.0566</v>
       </c>
       <c r="I6" s="2">
-        <v>43775.51367827129</v>
+        <v>43775.52764533406</v>
       </c>
       <c r="J6" s="2">
-        <v>43775.51369567668</v>
+        <v>43775.52765119234</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>650.0000013</v>
+        <v>933.3333352</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>413.429800000003</v>
+        <v>274.7291000000018</v>
       </c>
       <c r="I7" s="2">
-        <v>43775.51370332073</v>
+        <v>43775.52766221035</v>
       </c>
       <c r="J7" s="2">
-        <v>43775.51371053031</v>
+        <v>43775.52766782804</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -706,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1433.3333362</v>
+        <v>1000.000002</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -715,25 +709,25 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>402.6613000000054</v>
+        <v>275.8710000000093</v>
       </c>
       <c r="I8" s="2">
-        <v>43775.51372726596</v>
+        <v>43775.52767961068</v>
       </c>
       <c r="J8" s="2">
-        <v>43775.51373434388</v>
+        <v>43775.52768523527</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -741,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1066.6666688</v>
+        <v>500.000001</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -750,95 +744,95 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>383.6062999999967</v>
+        <v>367.0602000000116</v>
       </c>
       <c r="I9" s="2">
-        <v>43775.51374689159</v>
+        <v>43775.52769123772</v>
       </c>
       <c r="J9" s="2">
-        <v>43775.51375383235</v>
+        <v>43775.52769790946</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>1000.000002</v>
+        <v>1283.3333359</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>336.3274000000018</v>
+        <v>289.6835999999894</v>
       </c>
       <c r="I10" s="2">
-        <v>43775.51376562965</v>
+        <v>43775.52771297724</v>
       </c>
       <c r="J10" s="2">
-        <v>43775.51377195102</v>
+        <v>43775.52771876253</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1500.000003</v>
+        <v>1433.3333362</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>331.1191000000093</v>
+        <v>278.8297999999969</v>
       </c>
       <c r="I11" s="2">
-        <v>43775.5137895306</v>
+        <v>43775.5277355842</v>
       </c>
       <c r="J11" s="2">
-        <v>43775.51379577551</v>
+        <v>43775.52774123285</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -846,72 +840,72 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>933.3333352</v>
+        <v>1150.0000023</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>250.0000005</v>
+        <v>316.6666673</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>1500.058500499994</v>
+        <v>297.1155999999979</v>
       </c>
       <c r="I12" s="2">
-        <v>43775.51380681078</v>
+        <v>43775.52775465294</v>
       </c>
       <c r="J12" s="2">
-        <v>43775.5138242138</v>
+        <v>43775.52776060338</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>850.0000017</v>
+        <v>1350.0000027</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>1500.059000000007</v>
+        <v>224.0502000000077</v>
       </c>
       <c r="I13" s="2">
-        <v>43775.5138341756</v>
+        <v>43775.52777643572</v>
       </c>
       <c r="J13" s="2">
-        <v>43775.51385153618</v>
+        <v>43775.52778145701</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -919,147 +913,150 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1216.6666691</v>
+        <v>1433.3333362</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>1500.051199999987</v>
+        <v>240.4153000000093</v>
       </c>
       <c r="I14" s="2">
-        <v>43775.5138657255</v>
+        <v>43775.52779818774</v>
       </c>
       <c r="J14" s="2">
-        <v>43775.51388308771</v>
+        <v>43775.5278034053</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>716.6666681</v>
+        <v>650.0000013</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100.0000002</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>1500.050900000005</v>
+        <v>345.8885002000066</v>
       </c>
       <c r="I15" s="2">
-        <v>43775.51389149702</v>
+        <v>43775.52781113932</v>
       </c>
       <c r="J15" s="2">
-        <v>43775.51390885118</v>
+        <v>43775.52781762741</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>566.6666678</v>
+        <v>1150.0000023</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>1500.056999999998</v>
+        <v>324.7320999999914</v>
       </c>
       <c r="I16" s="2">
-        <v>43775.51391553233</v>
+        <v>43775.52783115988</v>
       </c>
       <c r="J16" s="2">
-        <v>43775.51393289066</v>
+        <v>43775.52783738753</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1150.0000023</v>
+        <v>850.0000017</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>500.000001</v>
+        <v>716.6666681</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>33.3333334</v>
       </c>
       <c r="L18">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1067,19 +1064,19 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>933.3333352</v>
+        <v>850.0000017</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1087,22 +1084,19 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>566.6666678</v>
+        <v>1000.000002</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>33.3333334</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,59 +1104,65 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>1350.0000027</v>
+        <v>1066.6666688</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>216.6666671</v>
       </c>
       <c r="L21">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>783.3333349000001</v>
+        <v>933.3333352</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>66.6666668</v>
       </c>
       <c r="L22">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>1150.0000023</v>
+        <v>783.3333349000001</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1170,22 +1170,22 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>1433.3333362</v>
+        <v>1216.6666691</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>66.6666668</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1193,42 +1193,42 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>1350.0000027</v>
+        <v>566.6666678</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>183.3333337</v>
       </c>
       <c r="L25">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>1066.6666688</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>183.3333337</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1236,22 +1236,19 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>1283.3333359</v>
+        <v>566.6666678</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>216.6666671</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1259,22 +1256,19 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>850.0000017</v>
+        <v>1216.6666691</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>150.0000003</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1282,19 +1276,19 @@
         <v>15</v>
       </c>
       <c r="B29">
-        <v>1216.6666691</v>
+        <v>783.3333349000001</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1302,19 +1296,22 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>1000.000002</v>
+        <v>1500.000003</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>133.3333336</v>
       </c>
       <c r="L30">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1322,19 +1319,19 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>783.3333349000001</v>
+        <v>1283.3333359</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.6006985500000001</v>
+        <v>0.5188342499999999</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
